--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3229.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3229.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.396932223779952</v>
+        <v>1.284177422523499</v>
       </c>
       <c r="B1">
-        <v>2.923515475411068</v>
+        <v>1.56017279624939</v>
       </c>
       <c r="C1">
-        <v>4.16701559429591</v>
+        <v>1.94821572303772</v>
       </c>
       <c r="D1">
-        <v>3.356710301779785</v>
+        <v>1.781768202781677</v>
       </c>
       <c r="E1">
-        <v>1.224579987401468</v>
+        <v>1.475476145744324</v>
       </c>
     </row>
   </sheetData>
